--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,37 +893,38 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>-100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -920,13 +933,16 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +985,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1049,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5200</v>
       </c>
       <c r="N17" s="3">
         <v>5200</v>
       </c>
       <c r="O17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-5200</v>
       </c>
       <c r="N18" s="3">
         <v>-5200</v>
       </c>
       <c r="O18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,23 +1220,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1217,71 +1250,77 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-5300</v>
       </c>
       <c r="N21" s="3">
         <v>-5300</v>
       </c>
       <c r="O21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
+      <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1292,11 +1331,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1307,55 +1346,61 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-5300</v>
       </c>
       <c r="N23" s="3">
         <v>-5300</v>
       </c>
       <c r="O23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-5300</v>
       </c>
       <c r="N26" s="3">
         <v>-5300</v>
       </c>
       <c r="O26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-5300</v>
       </c>
       <c r="N27" s="3">
         <v>-5300</v>
       </c>
       <c r="O27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,23 +1784,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1745,57 +1814,63 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-5300</v>
       </c>
       <c r="N33" s="3">
         <v>-5300</v>
       </c>
       <c r="O33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-5300</v>
       </c>
       <c r="N35" s="3">
         <v>-5300</v>
       </c>
       <c r="O35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,17 +2062,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1994,25 +2080,28 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,20 +2144,23 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,8 +2173,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,27 +2252,27 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2187,31 +2285,34 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2220,19 +2321,22 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,11 +2346,11 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,10 +2424,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2567,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2465,8 +2584,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2492,11 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2663,28 +2793,31 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -2693,7 +2826,7 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2702,101 +2835,110 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2300</v>
       </c>
       <c r="O59" s="3">
         <v>2300</v>
       </c>
       <c r="P59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,7 +2946,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2816,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -2825,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-5300</v>
       </c>
       <c r="N81" s="3">
         <v>-5300</v>
       </c>
       <c r="O81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +3825,20 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-600</v>
       </c>
       <c r="L89" s="3">
         <v>-600</v>
       </c>
       <c r="M89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N89" s="3">
         <v>-500</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,17 +4312,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4125,13 +4354,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
       </c>
       <c r="L100" s="3">
+        <v>500</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,23 +4660,26 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4436,24 +4687,27 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>-100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-200</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>-200</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,11 +1098,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>1400</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,43 +1217,49 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="G18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-1400</v>
       </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,29 +1288,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1253,13 +1321,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,81 +1341,87 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1349,58 +1429,70 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,29 +1924,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1817,60 +1957,72 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2065,43 +2239,49 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,17 +2342,17 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2176,11 +2362,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2255,8 +2453,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2267,18 +2465,18 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,46 +2501,52 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2349,14 +2559,14 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -2364,11 +2574,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,10 +2643,16 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,28 +2804,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2614,11 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,46 +2925,52 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
-      </c>
       <c r="L54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,28 +3020,28 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2796,128 +3058,146 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2600</v>
       </c>
       <c r="L60" s="3">
         <v>3000</v>
@@ -2926,19 +3206,25 @@
         <v>2600</v>
       </c>
       <c r="N60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2949,10 +3235,10 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2961,19 +3247,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-28900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-27400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-25100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-25000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4551,52 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,23 +4769,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4357,13 +4817,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,42 +5176,48 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,32 +950,32 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>-100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -970,13 +984,16 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1043,31 +1063,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1127,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,49 +1191,52 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5200</v>
       </c>
       <c r="Q17" s="3">
         <v>5200</v>
       </c>
       <c r="R17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,49 +1247,52 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-5200</v>
       </c>
       <c r="Q18" s="3">
         <v>-5200</v>
       </c>
       <c r="R18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q21" s="3">
         <v>-5300</v>
       </c>
       <c r="R21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,10 +1437,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1408,8 +1448,8 @@
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1420,11 +1460,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1435,64 +1475,70 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q23" s="3">
         <v>-5300</v>
       </c>
       <c r="R23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q26" s="3">
         <v>-5300</v>
       </c>
       <c r="R26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q27" s="3">
         <v>-5300</v>
       </c>
       <c r="R27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q33" s="3">
         <v>-5300</v>
       </c>
       <c r="R33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q35" s="3">
         <v>-5300</v>
       </c>
       <c r="R35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2245,17 +2332,17 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2263,25 +2350,28 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
@@ -2348,14 +2441,14 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2368,8 +2461,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2459,27 +2558,27 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2492,13 +2591,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
@@ -2507,25 +2609,25 @@
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2534,19 +2636,22 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,11 +2670,11 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2649,10 +2757,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,11 +2941,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2833,8 +2953,8 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2860,11 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -2931,46 +3057,49 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3026,25 +3157,25 @@
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3064,37 +3195,40 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -3103,7 +3237,7 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3112,119 +3246,128 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2300</v>
       </c>
       <c r="R59" s="3">
         <v>2300</v>
       </c>
       <c r="S59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3241,7 +3384,7 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3253,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3262,7 +3405,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-5300</v>
       </c>
       <c r="Q81" s="3">
         <v>-5300</v>
       </c>
       <c r="R81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-600</v>
       </c>
       <c r="O89" s="3">
         <v>-600</v>
       </c>
       <c r="P89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,14 +5017,14 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5316,55 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>500</v>
       </c>
       <c r="N100" s="3">
         <v>500</v>
       </c>
       <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,17 +5434,17 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5200,24 +5452,27 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,16 +961,18 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -953,47 +980,53 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>-100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
+        <v>200</v>
+      </c>
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1081,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1066,75 +1105,81 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>200</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-200</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>-200</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1241,61 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>1400</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="J18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1337,23 +1404,23 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1364,13 +1431,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,60 +1451,66 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-900</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1443,19 +1522,19 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1463,14 +1542,14 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1478,67 +1557,79 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,13 +2133,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -2009,23 +2148,23 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2036,69 +2175,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2335,43 +2508,49 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,26 +2620,26 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2464,11 +2649,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2561,8 +2758,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2573,18 +2770,18 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,75 +2806,81 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2679,8 +2888,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2688,11 +2897,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2760,10 +2975,16 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,37 +3163,43 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2983,11 +3222,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3302,61 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,16 +3401,18 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
@@ -3160,28 +3421,28 @@
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3198,155 +3459,173 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>3000</v>
@@ -3355,27 +3634,33 @@
         <v>2600</v>
       </c>
       <c r="Q60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3387,10 +3672,10 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3399,19 +3684,19 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-28900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-26800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-25100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-25000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-24200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-20800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-19700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-7700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +5201,61 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,17 +5479,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,52 +5810,58 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5437,42 +5940,48 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,8 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -986,32 +1000,32 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>-100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1020,13 +1034,16 @@
         <v>200</v>
       </c>
       <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1111,31 +1131,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1175,14 +1198,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,10 +1268,10 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1253,49 +1280,52 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>5200</v>
       </c>
       <c r="T17" s="3">
         <v>5200</v>
       </c>
       <c r="U17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1315,49 +1345,52 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-5200</v>
       </c>
       <c r="T18" s="3">
         <v>-5200</v>
       </c>
       <c r="U18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,38 +1426,38 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1437,13 +1471,16 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-5300</v>
       </c>
       <c r="T21" s="3">
         <v>-5300</v>
       </c>
       <c r="U21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,7 +1553,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1528,7 +1568,7 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1536,8 +1576,8 @@
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1548,11 +1588,11 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1563,11 +1603,14 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,61 +1618,64 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-5300</v>
       </c>
       <c r="T23" s="3">
         <v>-5300</v>
       </c>
       <c r="U23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-5300</v>
       </c>
       <c r="T26" s="3">
         <v>-5300</v>
       </c>
       <c r="U26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-5300</v>
       </c>
       <c r="T27" s="3">
         <v>-5300</v>
       </c>
       <c r="U27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,38 +2206,38 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2181,13 +2251,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-5300</v>
       </c>
       <c r="T33" s="3">
         <v>-5300</v>
       </c>
       <c r="U33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-5300</v>
       </c>
       <c r="T35" s="3">
         <v>-5300</v>
       </c>
       <c r="U35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2514,17 +2601,17 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2532,25 +2619,28 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2626,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
@@ -2635,14 +2728,14 @@
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2655,8 +2748,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2764,27 +2863,27 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -2797,13 +2896,16 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2812,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
@@ -2821,25 +2923,25 @@
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -2848,19 +2950,22 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2885,14 +2990,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2903,8 +3008,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2981,10 +3089,13 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3195,14 +3315,14 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3228,11 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,13 +3416,16 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3308,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
@@ -3317,46 +3443,49 @@
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3533,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
@@ -3427,25 +3558,25 @@
         <v>1000</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3465,46 +3596,49 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3513,7 +3647,7 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3522,148 +3656,157 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2300</v>
       </c>
       <c r="U59" s="3">
         <v>2300</v>
       </c>
       <c r="V59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -3678,7 +3821,7 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3690,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3699,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-5300</v>
       </c>
       <c r="T81" s="3">
         <v>-5300</v>
       </c>
       <c r="U81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5207,55 +5424,58 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-600</v>
       </c>
       <c r="R89" s="3">
         <v>-600</v>
       </c>
       <c r="S89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T89" s="3">
         <v>-500</v>
       </c>
       <c r="U89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,14 +5715,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5521,13 +5751,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,13 +6041,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -5816,52 +6062,55 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>500</v>
       </c>
       <c r="Q100" s="3">
         <v>500</v>
       </c>
       <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,13 +6171,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5946,17 +6198,17 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5964,24 +6216,27 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1003,32 +1017,32 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>-100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>300</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
@@ -1037,13 +1051,16 @@
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>200</v>
+      </c>
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1134,31 +1154,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1201,14 +1224,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,10 +1298,10 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1283,49 +1310,52 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>5200</v>
       </c>
       <c r="U17" s="3">
         <v>5200</v>
       </c>
       <c r="V17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,10 +1366,10 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
@@ -1348,49 +1378,52 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-5200</v>
       </c>
       <c r="U18" s="3">
         <v>-5200</v>
       </c>
       <c r="V18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1429,38 +1463,38 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1474,13 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,61 +1528,64 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-5300</v>
       </c>
       <c r="U21" s="3">
         <v>-5300</v>
       </c>
       <c r="V21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1596,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1571,7 +1611,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1579,8 +1619,8 @@
       <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>100</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1591,11 +1631,11 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1606,11 +1646,14 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1621,61 +1664,64 @@
         <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-5300</v>
       </c>
       <c r="U23" s="3">
         <v>-5300</v>
       </c>
       <c r="V23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1816,61 +1868,64 @@
         <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-5300</v>
       </c>
       <c r="U26" s="3">
         <v>-5300</v>
       </c>
       <c r="V26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1881,61 +1936,64 @@
         <v>-500</v>
       </c>
       <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-5300</v>
       </c>
       <c r="U27" s="3">
         <v>-5300</v>
       </c>
       <c r="V27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2209,38 +2279,38 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2254,13 +2324,16 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2271,61 +2344,64 @@
         <v>-500</v>
       </c>
       <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-5300</v>
       </c>
       <c r="U33" s="3">
         <v>-5300</v>
       </c>
       <c r="V33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2401,131 +2480,137 @@
         <v>-500</v>
       </c>
       <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-5300</v>
       </c>
       <c r="U35" s="3">
         <v>-5300</v>
       </c>
       <c r="V35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,17 +2660,18 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2604,17 +2691,17 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2622,25 +2709,28 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,13 +2794,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2722,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
@@ -2731,14 +2824,14 @@
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,8 +2844,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2866,27 +2965,27 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -2899,17 +2998,20 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2917,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
@@ -2926,25 +3028,25 @@
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -2953,19 +3055,22 @@
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2993,14 +3098,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -3011,8 +3116,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3092,10 +3200,13 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3318,14 +3438,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3351,11 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,17 +3542,20 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3437,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
@@ -3446,46 +3572,49 @@
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,13 +3674,13 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -3561,25 +3692,25 @@
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3599,49 +3730,52 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3650,7 +3784,7 @@
         <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3659,157 +3793,166 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2300</v>
       </c>
       <c r="V59" s="3">
         <v>2300</v>
       </c>
       <c r="W59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -3824,7 +3967,7 @@
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3836,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3845,7 +3988,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4941,61 +5136,64 @@
         <v>-500</v>
       </c>
       <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-5300</v>
       </c>
       <c r="U81" s="3">
         <v>-5300</v>
       </c>
       <c r="V81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,16 +5623,19 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -5427,55 +5644,58 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-600</v>
       </c>
       <c r="S89" s="3">
         <v>-600</v>
       </c>
       <c r="T89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="U89" s="3">
         <v>-500</v>
       </c>
       <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5718,14 +5948,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5754,13 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,16 +6287,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -6065,52 +6311,55 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>500</v>
       </c>
       <c r="R100" s="3">
         <v>500</v>
       </c>
       <c r="S100" s="3">
+        <v>500</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,17 +6423,20 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6201,17 +6453,17 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6219,24 +6471,27 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1021,8 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -1020,32 +1033,32 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>-100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
@@ -1054,13 +1067,16 @@
         <v>200</v>
       </c>
       <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,22 +1143,25 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1157,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,14 +1249,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1311,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1301,10 +1327,10 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1313,49 +1339,52 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>5200</v>
       </c>
       <c r="V17" s="3">
         <v>5200</v>
       </c>
       <c r="W17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,10 +1398,10 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1381,49 +1410,52 @@
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-5200</v>
       </c>
       <c r="V18" s="3">
         <v>-5200</v>
       </c>
       <c r="W18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1466,38 +1499,38 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1511,13 +1544,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1531,61 +1567,64 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-5300</v>
       </c>
       <c r="V21" s="3">
         <v>-5300</v>
       </c>
       <c r="W21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1638,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1614,7 +1653,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1622,8 +1661,8 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>100</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1634,11 +1673,11 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1649,16 +1688,19 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -1667,61 +1709,64 @@
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-5300</v>
       </c>
       <c r="V23" s="3">
         <v>-5300</v>
       </c>
       <c r="W23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1904,16 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -1871,66 +1922,69 @@
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-5300</v>
       </c>
       <c r="V26" s="3">
         <v>-5300</v>
       </c>
       <c r="W26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -1939,61 +1993,64 @@
         <v>-500</v>
       </c>
       <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-5300</v>
       </c>
       <c r="V27" s="3">
         <v>-5300</v>
       </c>
       <c r="W27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2282,38 +2351,38 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2327,18 +2396,21 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -2347,61 +2419,64 @@
         <v>-500</v>
       </c>
       <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-5300</v>
       </c>
       <c r="V33" s="3">
         <v>-5300</v>
       </c>
       <c r="W33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2543,16 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -2483,134 +2561,140 @@
         <v>-500</v>
       </c>
       <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-5300</v>
       </c>
       <c r="V35" s="3">
         <v>-5300</v>
       </c>
       <c r="W35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,20 +2746,21 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2694,17 +2780,17 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2712,25 +2798,28 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,16 +2886,19 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2818,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -2827,14 +2919,14 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2847,8 +2939,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2968,27 +3066,27 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3001,20 +3099,23 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -3022,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -3031,25 +3132,25 @@
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3058,19 +3159,22 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3101,14 +3205,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -3119,8 +3223,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,16 +3241,19 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3203,10 +3310,13 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3441,14 +3560,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3474,11 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,20 +3667,23 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3566,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -3575,46 +3700,49 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,13 +3807,13 @@
         <v>700</v>
       </c>
       <c r="F57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
@@ -3695,25 +3825,25 @@
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,43 +3875,43 @@
         <v>3600</v>
       </c>
       <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3787,7 +3920,7 @@
         <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3796,149 +3929,158 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>2300</v>
       </c>
       <c r="W59" s="3">
         <v>2300</v>
       </c>
       <c r="X59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,16 +4088,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -3970,7 +4112,7 @@
         <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3982,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3991,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-22100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5239,92 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -5139,61 +5333,64 @@
         <v>-500</v>
       </c>
       <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-5300</v>
       </c>
       <c r="V81" s="3">
         <v>-5300</v>
       </c>
       <c r="W81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,19 +5839,22 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -5647,55 +5863,58 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-600</v>
       </c>
       <c r="T89" s="3">
         <v>-600</v>
       </c>
       <c r="U89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
       </c>
       <c r="W89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5951,14 +6180,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5987,13 +6216,16 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,19 +6532,22 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -6314,52 +6559,55 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>500</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
+        <v>500</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,11 +6686,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -6456,17 +6707,17 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6474,24 +6725,27 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,13 +1030,15 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1024,11 +1052,11 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -1036,47 +1064,53 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>-100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>200</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
       </c>
       <c r="X12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,28 +1180,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1179,46 +1219,52 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-200</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>-200</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,17 +1298,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,67 +1378,73 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>1400</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,67 +1455,73 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="O18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-1400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1502,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1520,23 +1588,23 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1547,13 +1615,19 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,72 +1638,78 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-900</v>
       </c>
       <c r="M21" s="3">
         <v>-400</v>
       </c>
       <c r="N21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-5300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-5300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1641,10 +1721,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1656,19 +1736,19 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1676,14 +1756,14 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1691,82 +1771,94 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
       </c>
       <c r="G23" s="3">
         <v>-500</v>
       </c>
       <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
       </c>
       <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2354,16 +2494,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -2372,23 +2512,23 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2399,84 +2539,96 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
       </c>
       <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-5300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
       </c>
       <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-5300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2919,15 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2765,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2783,43 +2957,49 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,16 +3069,22 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2913,26 +3099,26 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2942,11 +3128,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3069,8 +3267,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3081,18 +3279,18 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
@@ -3102,13 +3300,19 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3120,61 +3324,67 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3208,8 +3418,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3217,8 +3427,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -3226,11 +3436,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3255,11 +3471,11 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3313,10 +3529,16 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3563,17 +3803,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3596,11 +3836,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,13 +3916,19 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3688,61 +3940,67 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
-      </c>
       <c r="T54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
@@ -3810,16 +4072,16 @@
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
@@ -3828,28 +4090,28 @@
         <v>1000</v>
       </c>
       <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3866,200 +4128,218 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E58" s="3">
         <v>3600</v>
       </c>
       <c r="F58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2600</v>
       </c>
       <c r="T60" s="3">
         <v>3000</v>
@@ -4068,19 +4348,25 @@
         <v>2600</v>
       </c>
       <c r="V60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,19 +4377,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -4115,10 +4401,10 @@
         <v>500</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4127,19 +4413,19 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-34800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-34000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-28900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-27400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-25100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-25000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-24200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-22100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-20800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-19700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-9300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
       </c>
       <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-5300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,70 +6285,76 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6183,17 +6643,17 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6219,13 +6679,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,16 +7036,16 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -6562,52 +7054,58 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,17 +7190,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6710,42 +7214,48 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,16 +1045,17 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1058,8 +1072,8 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1070,32 +1084,32 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>-100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
-      </c>
-      <c r="U12" s="3">
-        <v>300</v>
       </c>
       <c r="V12" s="3">
         <v>300</v>
       </c>
       <c r="W12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X12" s="3">
         <v>200</v>
@@ -1104,13 +1118,16 @@
         <v>200</v>
       </c>
       <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,31 +1203,34 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1225,31 +1245,31 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,14 +1327,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,13 +1402,13 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1390,10 +1417,10 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1402,49 +1429,52 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>5200</v>
       </c>
       <c r="Y17" s="3">
         <v>5200</v>
       </c>
       <c r="Z17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,13 +1482,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
@@ -1467,10 +1497,10 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
@@ -1479,49 +1509,52 @@
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-5200</v>
       </c>
       <c r="Y18" s="3">
         <v>-5200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,38 +1610,38 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1621,13 +1655,16 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,13 +1672,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
@@ -1650,61 +1687,64 @@
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y21" s="3">
         <v>-5300</v>
       </c>
       <c r="Z21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1752,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1727,7 +1767,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1742,7 +1782,7 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1750,8 +1790,8 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>100</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1762,11 +1802,11 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
@@ -1777,11 +1817,14 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,10 +1835,10 @@
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
@@ -1804,61 +1847,64 @@
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y23" s="3">
         <v>-5300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,10 +2075,10 @@
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
@@ -2035,61 +2087,64 @@
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y26" s="3">
         <v>-5300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,10 +2155,10 @@
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
@@ -2112,61 +2167,64 @@
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y27" s="3">
         <v>-5300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2500,38 +2570,38 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2545,13 +2615,16 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,10 +2635,10 @@
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
@@ -2574,61 +2647,64 @@
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y33" s="3">
         <v>-5300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,10 +2795,10 @@
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
@@ -2728,143 +2807,149 @@
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y35" s="3">
         <v>-5300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2933,17 +3020,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2963,17 +3050,17 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2981,25 +3068,28 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3105,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
@@ -3114,14 +3207,14 @@
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3134,8 +3227,8 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3273,27 +3372,27 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3318,17 +3420,17 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3336,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
@@ -3345,25 +3447,25 @@
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3372,19 +3474,22 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3424,14 +3529,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -3442,8 +3547,8 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3477,8 +3585,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3535,10 +3643,13 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3809,14 +3929,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3842,11 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3934,17 +4060,17 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3952,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -3961,46 +4087,49 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,16 +4187,17 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -4078,13 +4209,13 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>1000</v>
@@ -4096,25 +4227,25 @@
         <v>1000</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>700</v>
       </c>
       <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,7 +4277,7 @@
         <v>3700</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F58" s="3">
         <v>3600</v>
@@ -4152,43 +4286,43 @@
         <v>3600</v>
       </c>
       <c r="H58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -4197,7 +4331,7 @@
         <v>300</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4206,167 +4340,176 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>2300</v>
       </c>
       <c r="Z59" s="3">
         <v>2300</v>
       </c>
       <c r="AA59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,16 +4526,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
@@ -4407,7 +4550,7 @@
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4419,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4428,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-25100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-24200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-14500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,10 +5915,10 @@
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
@@ -5732,61 +5927,64 @@
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y81" s="3">
         <v>-5300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,13 +6490,16 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6291,13 +6508,13 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -6306,55 +6523,58 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-600</v>
       </c>
       <c r="W89" s="3">
         <v>-600</v>
       </c>
       <c r="X89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Y89" s="3">
         <v>-500</v>
       </c>
       <c r="Z89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6649,14 +6879,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6685,13 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,28 +7270,31 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -7060,52 +7306,55 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>500</v>
       </c>
       <c r="V100" s="3">
         <v>500</v>
       </c>
       <c r="W100" s="3">
+        <v>500</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,20 +7442,20 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7220,17 +7472,17 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -7238,24 +7490,27 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,22 +1071,24 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1075,11 +1102,11 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -1087,47 +1114,53 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>-100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
-      </c>
-      <c r="X12" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>200</v>
       </c>
       <c r="Z12" s="3">
         <v>200</v>
       </c>
       <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,28 +1254,28 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1248,46 +1287,52 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>200</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-200</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>-200</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1330,17 +1375,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,19 +1444,21 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1414,67 +1467,73 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>1400</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>5200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1544,7 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1494,67 +1553,73 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="R18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-1400</v>
       </c>
       <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1613,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1631,23 +1698,23 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1658,13 +1725,19 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,7 +1748,7 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1684,67 +1757,73 @@
         <v>-300</v>
       </c>
       <c r="I21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-900</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,13 +1831,13 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1770,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1785,19 +1864,19 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1805,14 +1884,14 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1820,91 +1899,103 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-400</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-400</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-400</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2573,16 +2712,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -2591,23 +2730,23 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2618,93 +2757,105 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-400</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-400</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3023,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3035,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3053,43 +3226,49 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3201,26 +3386,26 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3230,11 +3415,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3375,8 +3572,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3387,18 +3584,18 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3423,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3435,61 +3638,67 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3532,8 +3741,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3541,8 +3750,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3550,11 +3759,11 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3568,25 +3777,31 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3646,10 +3861,16 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3932,17 +4171,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3965,11 +4204,17 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4063,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -4075,61 +4326,67 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
-      </c>
       <c r="W54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>200</v>
       </c>
       <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4447,24 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
@@ -4212,16 +4473,16 @@
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
@@ -4230,28 +4491,28 @@
         <v>1000</v>
       </c>
       <c r="P57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4268,88 +4529,100 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3600</v>
       </c>
       <c r="H58" s="3">
         <v>3600</v>
       </c>
       <c r="I58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,138 +4630,144 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
         <v>10500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2600</v>
       </c>
       <c r="W60" s="3">
         <v>3000</v>
@@ -4497,19 +4776,25 @@
         <v>2600</v>
       </c>
       <c r="Y60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,19 +4814,19 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
@@ -4553,10 +4838,10 @@
         <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4565,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-35900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-35200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-34800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-34000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-33500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-33000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-32300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-31000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-30500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-28900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-27400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-26800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-25100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-25000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-24200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-23600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-20800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-14500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-9800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-7700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-6700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-400</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6882,17 +7341,17 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6918,13 +7377,19 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,34 +7758,40 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -7309,52 +7800,58 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7445,23 +7948,23 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7475,42 +7978,48 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,25 +1086,26 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1108,8 +1122,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -1120,32 +1134,32 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>-100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>200</v>
-      </c>
-      <c r="X12" s="3">
-        <v>300</v>
       </c>
       <c r="Y12" s="3">
         <v>300</v>
       </c>
       <c r="Z12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA12" s="3">
         <v>200</v>
@@ -1154,13 +1168,16 @@
         <v>200</v>
       </c>
       <c r="AC12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD12" s="3">
         <v>300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,40 +1262,43 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1293,31 +1313,31 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,14 +1404,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,16 +1472,17 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1464,13 +1491,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1479,10 +1506,10 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1491,49 +1518,52 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>5200</v>
       </c>
       <c r="AB17" s="3">
         <v>5200</v>
       </c>
       <c r="AC17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1550,13 +1580,13 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1565,10 +1595,10 @@
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
@@ -1577,49 +1607,52 @@
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-5200</v>
       </c>
       <c r="AB18" s="3">
         <v>-5200</v>
       </c>
       <c r="AC18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1686,38 +1720,38 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1731,13 +1765,16 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
@@ -1754,13 +1791,13 @@
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
@@ -1769,61 +1806,64 @@
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB21" s="3">
         <v>-5300</v>
       </c>
       <c r="AC21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,16 +1871,16 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1855,7 +1895,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1870,7 +1910,7 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1878,8 +1918,8 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>100</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1890,11 +1930,11 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
@@ -1905,22 +1945,25 @@
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
@@ -1929,10 +1972,10 @@
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
@@ -1941,61 +1984,64 @@
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB23" s="3">
         <v>-5300</v>
       </c>
       <c r="AC23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,19 +2215,22 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -2187,10 +2239,10 @@
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
@@ -2199,72 +2251,75 @@
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB26" s="3">
         <v>-5300</v>
       </c>
       <c r="AC26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
@@ -2273,10 +2328,10 @@
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
@@ -2285,61 +2340,64 @@
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB27" s="3">
         <v>-5300</v>
       </c>
       <c r="AC27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2718,38 +2788,38 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2763,24 +2833,27 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
@@ -2789,10 +2862,10 @@
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
@@ -2801,61 +2874,64 @@
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB33" s="3">
         <v>-5300</v>
       </c>
       <c r="AC33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,19 +3016,22 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
@@ -2961,10 +3040,10 @@
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
@@ -2973,152 +3052,158 @@
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB35" s="3">
         <v>-5300</v>
       </c>
       <c r="AC35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3202,17 +3289,17 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3232,17 +3319,17 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -3250,25 +3337,28 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3392,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
@@ -3401,14 +3494,14 @@
         <v>400</v>
       </c>
       <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3421,8 +3514,8 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3578,27 +3677,27 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3632,17 +3734,17 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3650,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
@@ -3659,25 +3761,25 @@
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
@@ -3686,19 +3788,22 @@
         <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3747,14 +3852,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3765,8 +3870,8 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3867,10 +3975,13 @@
         <v>0</v>
       </c>
       <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4177,14 +4297,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4210,11 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4320,17 +4446,17 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -4338,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -4347,46 +4473,49 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,25 +4579,26 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
@@ -4479,13 +4610,13 @@
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>1000</v>
@@ -4497,25 +4628,25 @@
         <v>1000</v>
       </c>
       <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>700</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
       </c>
       <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4547,13 +4681,13 @@
         <v>3600</v>
       </c>
       <c r="F58" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G58" s="3">
         <v>3700</v>
       </c>
       <c r="H58" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I58" s="3">
         <v>3600</v>
@@ -4562,43 +4696,43 @@
         <v>3600</v>
       </c>
       <c r="K58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -4607,7 +4741,7 @@
         <v>300</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4616,13 +4750,16 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4636,165 +4773,171 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2200</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>2300</v>
       </c>
       <c r="AC59" s="3">
         <v>2300</v>
       </c>
       <c r="AD59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AE59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4820,16 +4963,16 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
@@ -4844,7 +4987,7 @@
         <v>500</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4856,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
@@ -4865,7 +5008,7 @@
         <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>11300</v>
       </c>
       <c r="E66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-25000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-22100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-20800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-19700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-14500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11100</v>
+        <v>-11300</v>
       </c>
       <c r="E76" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,110 +6390,116 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
@@ -6313,10 +6508,10 @@
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
@@ -6325,61 +6520,64 @@
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-5300</v>
       </c>
       <c r="AB81" s="3">
         <v>-5300</v>
       </c>
       <c r="AC81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6938,10 +7155,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6950,13 +7167,13 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6965,55 +7182,58 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-600</v>
       </c>
       <c r="Z89" s="3">
         <v>-600</v>
       </c>
       <c r="AA89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AB89" s="3">
         <v>-500</v>
       </c>
       <c r="AC89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7347,14 +7577,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7383,13 +7613,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7776,25 +8022,25 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -7806,52 +8052,55 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
-      </c>
-      <c r="X100" s="3">
-        <v>500</v>
       </c>
       <c r="Y100" s="3">
         <v>500</v>
       </c>
       <c r="Z100" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7954,20 +8206,20 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7984,17 +8236,17 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -8002,24 +8254,27 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>GWTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1098,17 +1112,17 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1125,8 +1139,8 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1137,32 +1151,32 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
         <v>-100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>300</v>
       </c>
       <c r="Z12" s="3">
         <v>300</v>
       </c>
       <c r="AA12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="3">
         <v>200</v>
@@ -1171,13 +1185,16 @@
         <v>200</v>
       </c>
       <c r="AD12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE12" s="3">
         <v>300</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,43 +1282,46 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1316,31 +1336,31 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1407,14 +1430,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,10 +1509,10 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1494,13 +1521,13 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1509,10 +1536,10 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1521,49 +1548,52 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>5200</v>
       </c>
       <c r="AC17" s="3">
         <v>5200</v>
       </c>
       <c r="AD17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1583,13 +1613,13 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
@@ -1598,10 +1628,10 @@
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
@@ -1610,49 +1640,52 @@
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-5200</v>
       </c>
       <c r="AC18" s="3">
         <v>-5200</v>
       </c>
       <c r="AD18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1723,38 +1757,38 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1768,13 +1802,16 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,10 +1819,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1794,13 +1831,13 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
@@ -1809,61 +1846,64 @@
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC21" s="3">
         <v>-5300</v>
       </c>
       <c r="AD21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1874,16 +1914,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1898,7 +1938,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1913,7 +1953,7 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1921,8 +1961,8 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>100</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1933,11 +1973,11 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
@@ -1948,25 +1988,28 @@
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
@@ -1975,10 +2018,10 @@
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
@@ -1987,61 +2030,64 @@
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC23" s="3">
         <v>-5300</v>
       </c>
       <c r="AD23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,22 +2267,25 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
@@ -2242,10 +2294,10 @@
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
@@ -2254,75 +2306,78 @@
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC26" s="3">
         <v>-5300</v>
       </c>
       <c r="AD26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
@@ -2331,10 +2386,10 @@
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
@@ -2343,61 +2398,64 @@
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC27" s="3">
         <v>-5300</v>
       </c>
       <c r="AD27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2791,38 +2861,38 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2836,27 +2906,30 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
@@ -2865,10 +2938,10 @@
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
@@ -2877,61 +2950,64 @@
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC33" s="3">
         <v>-5300</v>
       </c>
       <c r="AD33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,22 +3095,25 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
@@ -3043,10 +3122,10 @@
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
@@ -3055,155 +3134,161 @@
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC35" s="3">
         <v>-5300</v>
       </c>
       <c r="AD35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3292,17 +3379,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -3322,17 +3409,17 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -3340,25 +3427,28 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3488,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
@@ -3497,14 +3590,14 @@
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3517,8 +3610,8 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3680,27 +3779,27 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3737,17 +3839,17 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3755,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
@@ -3764,25 +3866,25 @@
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
@@ -3791,19 +3893,22 @@
         <v>200</v>
       </c>
       <c r="AB46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3855,14 +3960,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3873,8 +3978,8 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3978,10 +4086,13 @@
         <v>0</v>
       </c>
       <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4300,14 +4420,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4333,11 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-      <c r="AE52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4449,17 +4575,17 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -4467,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
@@ -4476,46 +4602,49 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,28 +4710,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
@@ -4613,13 +4744,13 @@
         <v>700</v>
       </c>
       <c r="M57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>1000</v>
@@ -4631,25 +4762,25 @@
         <v>1000</v>
       </c>
       <c r="S57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>700</v>
       </c>
       <c r="V57" s="3">
         <v>700</v>
       </c>
       <c r="W57" s="3">
+        <v>700</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4684,13 +4818,13 @@
         <v>3600</v>
       </c>
       <c r="G58" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3">
         <v>3700</v>
       </c>
       <c r="I58" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J58" s="3">
         <v>3600</v>
@@ -4699,43 +4833,43 @@
         <v>3600</v>
       </c>
       <c r="L58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>500</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4744,7 +4878,7 @@
         <v>300</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
@@ -4753,13 +4887,16 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4776,168 +4913,174 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2200</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>2300</v>
       </c>
       <c r="AD59" s="3">
         <v>2300</v>
       </c>
       <c r="AE59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AF59" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4966,16 +5109,16 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
@@ -4990,7 +5133,7 @@
         <v>500</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -5002,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
@@ -5011,7 +5154,7 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-28900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-25100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-23600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-22100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-20800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-19700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-14500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,116 +6582,122 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
@@ -6511,10 +6706,10 @@
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
@@ -6523,61 +6718,64 @@
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-5300</v>
       </c>
       <c r="AC81" s="3">
         <v>-5300</v>
       </c>
       <c r="AD81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,13 +7357,16 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -7158,10 +7375,10 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -7170,13 +7387,13 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -7185,55 +7402,58 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-600</v>
       </c>
       <c r="AA89" s="3">
         <v>-600</v>
       </c>
       <c r="AB89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="AC89" s="3">
         <v>-500</v>
       </c>
       <c r="AD89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7580,14 +7810,14 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7616,13 +7846,16 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -8025,25 +8271,25 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -8055,52 +8301,55 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>500</v>
       </c>
       <c r="Z100" s="3">
         <v>500</v>
       </c>
       <c r="AA100" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8209,20 +8461,20 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -8239,17 +8491,17 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -8257,24 +8509,27 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>600</v>
       </c>
     </row>
